--- a/medicine/Maladies infectieuses/MRNA-1273.214/MRNA-1273.214.xlsx
+++ b/medicine/Maladies infectieuses/MRNA-1273.214/MRNA-1273.214.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vaccin mRNA-1273.214 de Moderna est une version bivalente du vaccin mRNA-1273, adjoignant une souche Omicron (B.1.1.529) à la souche historique (D614G).
 Les deux ARN messagers sont dosés à 25 µg chacun.
-Les résultats d'essais cliniques de phase II/III publiés en juin 2022 montrent une performance accrue de ce vaccin sur les variants BA.4 et BA.5 — dominants à cette date[1] — avec un taux d'anticorps neutralisants 5 fois supérieur[2],[3].
-Comme son homologue de Pfizer-BioNTech, le MRNA-1273.214 a été autorisé par l'Agence européenne des médicaments le 1er septembre 2022[4].
+Les résultats d'essais cliniques de phase II/III publiés en juin 2022 montrent une performance accrue de ce vaccin sur les variants BA.4 et BA.5 — dominants à cette date — avec un taux d'anticorps neutralisants 5 fois supérieur,.
+Comme son homologue de Pfizer-BioNTech, le MRNA-1273.214 a été autorisé par l'Agence européenne des médicaments le 1er septembre 2022.
 </t>
         </is>
       </c>
